--- a/1kappa/fee_tagger_dataframe_kappa.xlsx
+++ b/1kappa/fee_tagger_dataframe_kappa.xlsx
@@ -22,37 +22,37 @@
     <t>kappa</t>
   </si>
   <si>
+    <t>szaman@purdue.edu</t>
+  </si>
+  <si>
+    <t>vbrank@purdue.edu</t>
+  </si>
+  <si>
+    <t>zhan1565@purdue.edu</t>
+  </si>
+  <si>
+    <t>dean24@purdue.edu</t>
+  </si>
+  <si>
+    <t>liu1417@purdue.edu</t>
+  </si>
+  <si>
     <t>wang1509@purdue.edu</t>
   </si>
   <si>
-    <t>dean24@purdue.edu</t>
-  </si>
-  <si>
-    <t>szaman@purdue.edu</t>
-  </si>
-  <si>
-    <t>liu1417@purdue.edu</t>
-  </si>
-  <si>
-    <t>vbrank@purdue.edu</t>
+    <t>bbrumfi@purdue.edu</t>
+  </si>
+  <si>
+    <t>kshatkus@purdue.edu</t>
   </si>
   <si>
     <t>mspanier@purdue.edu</t>
   </si>
   <si>
+    <t>jmccror@purdue.edu</t>
+  </si>
+  <si>
     <t>cbbaird@purdue.edu</t>
-  </si>
-  <si>
-    <t>zhan1565@purdue.edu</t>
-  </si>
-  <si>
-    <t>jmccror@purdue.edu</t>
-  </si>
-  <si>
-    <t>kshatkus@purdue.edu</t>
-  </si>
-  <si>
-    <t>bbrumfi@purdue.edu</t>
   </si>
 </sst>
 </file>
